--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2500.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2500.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.677320660824293</v>
+        <v>0.4860750734806061</v>
       </c>
       <c r="B1">
-        <v>4.025004833260074</v>
+        <v>1.29093337059021</v>
       </c>
       <c r="C1">
-        <v>3.119280213238039</v>
+        <v>3.742969512939453</v>
       </c>
       <c r="D1">
-        <v>2.770997383749612</v>
+        <v>3.20445442199707</v>
       </c>
       <c r="E1">
-        <v>3.495890603237771</v>
+        <v>0.8148506879806519</v>
       </c>
     </row>
   </sheetData>
